--- a/Plantillas/Solicitud_Pago.xlsx
+++ b/Plantillas/Solicitud_Pago.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alex\PP\Sistema_SPagos\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestra Flor\Sistema_SPagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -428,123 +428,24 @@
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,53 +455,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -609,39 +510,138 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -681,7 +681,7 @@
         <xdr:cNvPr id="2" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1006821E-05CB-407A-8E00-6B6DE0C6D665}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1006821E-05CB-407A-8E00-6B6DE0C6D665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,613 +1008,615 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:L38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="10.42578125" style="7"/>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19">
+      <c r="G4" s="73"/>
+      <c r="H4" s="74">
         <v>45505</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="26"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="35"/>
+      <c r="H8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="G14" s="35" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="35"/>
+      <c r="G14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="G17" s="47" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="G17" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="34"/>
-      <c r="J19" s="32"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="G20" s="27" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="35"/>
+      <c r="G20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="53" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
     </row>
     <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="G28" s="27" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="35"/>
+      <c r="G28" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="66">
+      <c r="C29" s="36">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="66" t="s">
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
     </row>
     <row r="30" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
     </row>
     <row r="31" spans="3:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="H32" s="61" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="H32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
     </row>
     <row r="33" spans="2:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="H33" s="68" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="H33" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
     </row>
     <row r="35" spans="2:21" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="32"/>
-      <c r="H36" s="27" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="H37" s="74" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="H37" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="42"/>
-      <c r="H39" s="76" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="9"/>
+      <c r="H39" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="77"/>
-      <c r="N40" s="78">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="20"/>
+      <c r="N40" s="21">
         <v>45642</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="N41" s="78">
+      <c r="N41" s="21">
         <f>N40+15</f>
         <v>45657</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="H37:L38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L35"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="S24:W28"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:L3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:L17"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="C18:E18"/>
@@ -1625,24 +1627,22 @@
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:L3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="S24:W28"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L35"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="H37:L38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B40:E40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantillas/Solicitud_Pago.xlsx
+++ b/Plantillas/Solicitud_Pago.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestra Flor\Sistema_SPagos\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistema_SPagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>SOLICITUD DE PAGO</t>
   </si>
@@ -89,9 +89,6 @@
     <t>R. F. C.  del beneficiario:</t>
   </si>
   <si>
-    <t>Transferencia Electrónica</t>
-  </si>
-  <si>
     <t>Clave bancaria estandarizada</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
   </si>
   <si>
     <t>Proyecto:</t>
-  </si>
-  <si>
-    <t>Contratos No. 641003608, 641003609, 643023809 y 643024615</t>
   </si>
   <si>
     <t>Solicitó</t>
@@ -426,7 +420,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,21 +469,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,6 +487,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -513,6 +501,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,9 +522,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,71 +567,80 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1008,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:L12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1030,71 +1030,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="67" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="72"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74">
+      <c r="G4" s="70"/>
+      <c r="H4" s="71">
         <v>45505</v>
       </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="75" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1104,37 +1104,37 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="35"/>
-      <c r="H8" s="31" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="33"/>
+      <c r="H8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7"/>
@@ -1148,18 +1148,18 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="37"/>
@@ -1179,32 +1179,30 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="35"/>
-      <c r="G14" s="48" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="33"/>
+      <c r="G14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
@@ -1220,19 +1218,19 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="33"/>
+      <c r="G17" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="35"/>
-      <c r="G17" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
@@ -1240,12 +1238,12 @@
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
@@ -1255,29 +1253,29 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="33"/>
+      <c r="G20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="35"/>
-      <c r="G20" s="31" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7"/>
       <c r="H21" s="7"/>
@@ -1286,15 +1284,15 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="38"/>
       <c r="F22" s="7"/>
       <c r="G22" s="37"/>
-      <c r="H22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
+      <c r="H22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
@@ -1309,57 +1307,57 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
+      <c r="C24" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
     </row>
     <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
@@ -1372,31 +1370,31 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="33"/>
+      <c r="G28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="35"/>
-      <c r="G28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="36">
@@ -1407,7 +1405,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="7"/>
       <c r="G29" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
@@ -1450,19 +1448,19 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="H32" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="H32" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
       <c r="R32" s="13"/>
       <c r="S32" s="16"/>
       <c r="T32" s="13"/>
@@ -1473,29 +1471,27 @@
       <c r="D33" s="8"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="H33" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
       <c r="R33" s="13"/>
       <c r="S33" s="16"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
       <c r="R34" s="13"/>
       <c r="S34" s="17"/>
       <c r="T34" s="13"/>
@@ -1507,85 +1503,85 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="R35" s="13"/>
       <c r="S35" s="17"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="C36" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="7"/>
-      <c r="H36" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="H36" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
       <c r="R36" s="13"/>
       <c r="S36" s="17"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="H37" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="C37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="H37" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="C39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="H39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="20"/>
       <c r="N40" s="21">
         <v>45642</v>
@@ -1611,38 +1607,38 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C24:L24"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:L14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="G18:L18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C24:L24"/>
     <mergeCell ref="S24:W28"/>
     <mergeCell ref="C25:L26"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="H36:L36"/>
     <mergeCell ref="C37:F38"/>
     <mergeCell ref="H37:L38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="H34:L35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantillas/Solicitud_Pago.xlsx
+++ b/Plantillas/Solicitud_Pago.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>SOLICITUD DE PAGO</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Fecha límite de pago:</t>
-  </si>
-  <si>
-    <t>Pronto Pago</t>
   </si>
   <si>
     <t>Número(s)  de factura (s)</t>
@@ -282,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -403,6 +400,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -420,7 +428,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,28 +477,153 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -498,149 +631,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -681,7 +698,7 @@
         <xdr:cNvPr id="2" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1006821E-05CB-407A-8E00-6B6DE0C6D665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1006821E-05CB-407A-8E00-6B6DE0C6D665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,8 +1025,8 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1030,71 +1047,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="64" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71">
+      <c r="G4" s="40"/>
+      <c r="H4" s="41">
         <v>45505</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="40"/>
+      <c r="J4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1104,37 +1121,37 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="33"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="H8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7"/>
@@ -1148,30 +1165,30 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
@@ -1179,30 +1196,30 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="33"/>
-      <c r="G14" s="47" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="G14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
@@ -1218,32 +1235,32 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="33"/>
-      <c r="G17" s="54" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="G17" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
@@ -1253,21 +1270,21 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="33"/>
-      <c r="G20" s="27" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="G20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
@@ -1284,15 +1301,15 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="44"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
@@ -1307,57 +1324,57 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
     </row>
     <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
@@ -1370,48 +1387,45 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="33"/>
-      <c r="G28" s="27" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="G28" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="36">
+      <c r="C29" s="74">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -1448,19 +1462,19 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="H32" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="H32" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
       <c r="R32" s="13"/>
       <c r="S32" s="16"/>
       <c r="T32" s="13"/>
@@ -1471,27 +1485,27 @@
       <c r="D33" s="8"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
       <c r="R33" s="13"/>
       <c r="S33" s="16"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
       <c r="R34" s="13"/>
       <c r="S34" s="17"/>
       <c r="T34" s="13"/>
@@ -1503,85 +1517,85 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
       <c r="R35" s="13"/>
       <c r="S35" s="17"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="7"/>
-      <c r="H36" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
       <c r="R36" s="13"/>
       <c r="S36" s="17"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="H37" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="H37" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="C39" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="H39" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="20"/>
       <c r="N40" s="21">
         <v>45642</v>
@@ -1595,18 +1609,23 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:L3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="H37:L38"/>
+    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="S24:W28"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:L29"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:L22"/>
@@ -1622,23 +1641,18 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="S24:W28"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="H37:L38"/>
-    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:L3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C11:L11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantillas/Solicitud_Pago.xlsx
+++ b/Plantillas/Solicitud_Pago.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistema_SPagos\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gestor-Autorizaciones y Pagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F048957-9632-4BC9-BF9B-B45D4B62D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="000 NUEVO" sheetId="1" r:id="rId1"/>
@@ -17,22 +18,33 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'000 NUEVO'!$A$1:$L$40</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leticia Badillo</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>SOLICITUD DE PAGO</t>
   </si>
@@ -126,9 +138,6 @@
   </si>
   <si>
     <t>Autorizó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.C Mishell Sandoval </t>
   </si>
   <si>
     <t>Lic. Dalia Guzman</t>
@@ -140,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -428,7 +437,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -483,6 +492,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,6 +644,15 @@
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,27 +662,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,7 +724,7 @@
         <xdr:cNvPr id="2" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1006821E-05CB-407A-8E00-6B6DE0C6D665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1006821E-05CB-407A-8E00-6B6DE0C6D665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,14 +1045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:L29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,71 +1073,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="34" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41">
+      <c r="G4" s="41"/>
+      <c r="H4" s="42">
         <v>45505</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1121,37 +1147,37 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="H8" s="46" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="H8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7"/>
@@ -1165,30 +1191,30 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
@@ -1196,30 +1222,30 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
@@ -1235,32 +1261,32 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="G17" s="64" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="G17" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
@@ -1270,21 +1296,21 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="G20" s="46" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="G20" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
@@ -1301,15 +1327,15 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
@@ -1324,57 +1350,58 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
     </row>
     <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="Q25" s="24"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
@@ -1387,45 +1414,45 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="G28" s="46" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="G28" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="74">
+      <c r="C29" s="75">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="7"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="83"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -1462,19 +1489,19 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="H32" s="55" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="H32" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
       <c r="R32" s="13"/>
       <c r="S32" s="16"/>
       <c r="T32" s="13"/>
@@ -1496,16 +1523,16 @@
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
       <c r="R34" s="13"/>
       <c r="S34" s="17"/>
       <c r="T34" s="13"/>
@@ -1517,107 +1544,102 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
       <c r="R35" s="13"/>
       <c r="S35" s="17"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="7"/>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
       <c r="R36" s="13"/>
       <c r="S36" s="17"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" spans="2:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="H37" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
+    <row r="37" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="85"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
+    <row r="38" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="88"/>
+      <c r="H38" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="90"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
+      <c r="C39" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
+      <c r="H39" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="20"/>
-      <c r="N40" s="21">
-        <v>45642</v>
-      </c>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="N41" s="21">
-        <f>N40+15</f>
-        <v>45657</v>
-      </c>
+      <c r="N41" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="46">
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="H37:L38"/>
     <mergeCell ref="H34:L35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H37:L37"/>
     <mergeCell ref="S24:W28"/>
     <mergeCell ref="C25:L26"/>
     <mergeCell ref="C28:E28"/>

--- a/Plantillas/Solicitud_Pago.xlsx
+++ b/Plantillas/Solicitud_Pago.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gestor-Autorizaciones y Pagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F048957-9632-4BC9-BF9B-B45D4B62D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8297C4-13E7-45D2-8163-D5E73F31B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="000 NUEVO" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>SOLICITUD DE PAGO</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Fecha de la solicitud:</t>
   </si>
   <si>
-    <t>Importe:</t>
-  </si>
-  <si>
     <t>Nombre del beneficiario del pago:</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>Nombre y Firma</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>IVA:</t>
+  </si>
+  <si>
+    <t>Subtotal:</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,146 +499,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -641,9 +550,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,36 +574,136 @@
     <xf numFmtId="16" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1052,7 +1073,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:L37"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1073,71 +1094,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="35" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42">
+      <c r="G4" s="85"/>
+      <c r="H4" s="86">
         <v>45505</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1147,37 +1168,41 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="H8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="44"/>
+      <c r="H8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="94"/>
+      <c r="L8" s="25" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7"/>
@@ -1191,30 +1216,30 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="C11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
@@ -1222,30 +1247,30 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="44"/>
+      <c r="G14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
@@ -1261,32 +1286,32 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="44"/>
+      <c r="G17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="G17" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
@@ -1296,29 +1321,29 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="44"/>
+      <c r="G20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="G20" s="47" t="s">
+      <c r="H20" s="31"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7"/>
       <c r="H21" s="7"/>
@@ -1327,15 +1352,15 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
@@ -1350,58 +1375,58 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
+      <c r="C24" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
       <c r="Q25" s="24"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
@@ -1414,45 +1439,45 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="44"/>
+      <c r="G28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="G28" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="75">
+      <c r="C29" s="47">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="7"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -1489,19 +1514,19 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="H32" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="H32" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
       <c r="R32" s="13"/>
       <c r="S32" s="16"/>
       <c r="T32" s="13"/>
@@ -1523,16 +1548,16 @@
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
       <c r="R34" s="13"/>
       <c r="S34" s="17"/>
       <c r="T34" s="13"/>
@@ -1544,83 +1569,83 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
       <c r="R35" s="13"/>
       <c r="S35" s="17"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="7"/>
-      <c r="H36" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
       <c r="R36" s="13"/>
       <c r="S36" s="17"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="85"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="86"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="88"/>
-      <c r="H38" s="86" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="H38" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="40"/>
+    </row>
+    <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="90"/>
-    </row>
-    <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
+      <c r="H39" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="20"/>
       <c r="N40" s="21"/>
     </row>
@@ -1628,26 +1653,21 @@
       <c r="N41" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H34:L35"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="S24:W28"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:L29"/>
+  <mergeCells count="48">
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:L3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:L22"/>
@@ -1663,18 +1683,25 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:L3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="S24:W28"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H37:L37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantillas/Solicitud_Pago.xlsx
+++ b/Plantillas/Solicitud_Pago.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestra Flor\Gestor-Autorizaciones y Pagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C45A7-500F-4BAE-AF0D-369997D3B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CDE5FC-F5F0-40EC-956F-2FE46CFF2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="000 NUEVO" sheetId="1" r:id="rId1"/>
@@ -505,158 +505,43 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -665,9 +550,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,33 +574,136 @@
     <xf numFmtId="16" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1072,8 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:L35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,71 +1094,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="37" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44">
+      <c r="G4" s="85"/>
+      <c r="H4" s="86">
         <v>45505</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="45" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1168,40 +1168,40 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="H8" s="54" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="44"/>
+      <c r="H8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="55" t="s">
+      <c r="I8" s="77"/>
+      <c r="J8" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="95"/>
       <c r="L8" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -1216,30 +1216,30 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
@@ -1247,30 +1247,30 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="G14" s="64" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="44"/>
+      <c r="G14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
@@ -1286,32 +1286,32 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="G17" s="71" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="44"/>
+      <c r="G17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
@@ -1321,21 +1321,21 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="G20" s="49" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="44"/>
+      <c r="G20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="49"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
@@ -1352,15 +1352,15 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
@@ -1375,58 +1375,58 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
       <c r="Q25" s="24"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
@@ -1439,45 +1439,45 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="G28" s="49" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="44"/>
+      <c r="G28" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="81">
+      <c r="C29" s="47">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="7"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -1514,19 +1514,19 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="H32" s="62" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="H32" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
       <c r="R32" s="13"/>
       <c r="S32" s="16"/>
       <c r="T32" s="13"/>
@@ -1548,16 +1548,16 @@
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
       <c r="R34" s="13"/>
       <c r="S34" s="17"/>
       <c r="T34" s="13"/>
@@ -1569,83 +1569,83 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
       <c r="R35" s="13"/>
       <c r="S35" s="17"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="7"/>
-      <c r="H36" s="49" t="s">
+      <c r="H36" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
       <c r="R36" s="13"/>
       <c r="S36" s="17"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="91"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="91"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="94"/>
-      <c r="H38" s="92" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="H38" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="95"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="40"/>
     </row>
     <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="20"/>
       <c r="N40" s="21"/>
     </row>
@@ -1654,25 +1654,20 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H34:L35"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="S24:W28"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:L3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:L22"/>
@@ -1688,20 +1683,25 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:L3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S24:W28"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H37:L37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plantillas/Solicitud_Pago.xlsx
+++ b/Plantillas/Solicitud_Pago.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestra Flor\Gestor-Autorizaciones y Pagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CDE5FC-F5F0-40EC-956F-2FE46CFF2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE3820-434C-4C0F-8FDA-09A2684D4F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="000 NUEVO" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Autorizó</t>
   </si>
   <si>
-    <t>Lic. Dalia Guzman</t>
-  </si>
-  <si>
     <t>Nombre y Firma</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Subtotal:</t>
+  </si>
+  <si>
+    <t>Ing. Emilo de Valle</t>
   </si>
 </sst>
 </file>
@@ -505,43 +505,158 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -550,21 +665,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,136 +677,33 @@
     <xf numFmtId="16" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,71 +1094,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="79" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86">
+      <c r="G4" s="43"/>
+      <c r="H4" s="44">
         <v>45505</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="88"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1168,40 +1168,40 @@
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="44"/>
-      <c r="H8" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="94" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="H8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="95"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="56"/>
       <c r="L8" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="6"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -1216,30 +1216,30 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8"/>
@@ -1247,30 +1247,30 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="44"/>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="G14" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
@@ -1286,32 +1286,32 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="44"/>
-      <c r="G17" s="64" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="G17" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
@@ -1321,21 +1321,21 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="44"/>
-      <c r="G20" s="31" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="G20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
@@ -1352,15 +1352,15 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="7"/>
@@ -1375,58 +1375,58 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
     </row>
     <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
       <c r="Q25" s="24"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
@@ -1439,45 +1439,45 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="44"/>
-      <c r="G28" s="31" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="G28" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="47">
+      <c r="C29" s="81">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="7"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="84"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -1514,19 +1514,19 @@
       <c r="U31" s="13"/>
     </row>
     <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="H32" s="45" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="H32" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
       <c r="R32" s="13"/>
       <c r="S32" s="16"/>
       <c r="T32" s="13"/>
@@ -1548,16 +1548,16 @@
       <c r="U33" s="13"/>
     </row>
     <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
       <c r="R34" s="13"/>
       <c r="S34" s="17"/>
       <c r="T34" s="13"/>
@@ -1569,83 +1569,83 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
       <c r="R35" s="13"/>
       <c r="S35" s="17"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
     <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="7"/>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
       <c r="R36" s="13"/>
       <c r="S36" s="17"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
     <row r="37" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="91"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
     <row r="38" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="H38" s="36" t="s">
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="94"/>
+      <c r="H38" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="95"/>
+    </row>
+    <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40"/>
-    </row>
-    <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
+      <c r="H39" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="20"/>
       <c r="N40" s="21"/>
     </row>
@@ -1654,20 +1654,25 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:L3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H34:L35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="S24:W28"/>
+    <mergeCell ref="C25:L26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:L29"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:L22"/>
@@ -1683,25 +1688,20 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="S24:W28"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H34:L35"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:L3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
